--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_5.xlsx
@@ -518,716 +518,716 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_15</t>
+          <t>model_30_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9424616434500922</v>
+        <v>0.9750766511086207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7560840793482171</v>
+        <v>0.7786625398475548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5865552587067655</v>
+        <v>0.9758054725329892</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8962506254973763</v>
+        <v>0.4651810411945249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8718853197700038</v>
+        <v>0.9479918478589999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3847592551890043</v>
+        <v>0.1666625487981225</v>
       </c>
       <c r="H2" t="n">
-        <v>1.631066884528015</v>
+        <v>1.480084615204692</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6775689867704979</v>
+        <v>0.4147816420474391</v>
       </c>
       <c r="J2" t="n">
-        <v>1.685934113249913</v>
+        <v>0.626433373584849</v>
       </c>
       <c r="K2" t="n">
-        <v>1.181751744559204</v>
+        <v>0.5206073051288621</v>
       </c>
       <c r="L2" t="n">
-        <v>1.122250714039829</v>
+        <v>0.5758307695172482</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6202896542656539</v>
+        <v>0.4082432470943304</v>
       </c>
       <c r="N2" t="n">
-        <v>1.055236822287911</v>
+        <v>1.023926414935724</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6466966690243414</v>
+        <v>0.4256230073031595</v>
       </c>
       <c r="P2" t="n">
-        <v>99.91027490296067</v>
+        <v>101.5835683534891</v>
       </c>
       <c r="Q2" t="n">
-        <v>159.6351903215025</v>
+        <v>161.3084837720309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_16</t>
+          <t>model_30_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9420237917724068</v>
+        <v>0.9751013784558668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7560837913997269</v>
+        <v>0.7785644333175488</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5800031908352146</v>
+        <v>0.9758042838973355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8953031436565899</v>
+        <v>0.4661663765285409</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8704687187785165</v>
+        <v>0.9480484510381227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3876871713738081</v>
+        <v>0.1664971969132296</v>
       </c>
       <c r="H3" t="n">
-        <v>1.631068810040895</v>
+        <v>1.480740654022582</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6883067651132382</v>
+        <v>0.4148020195583829</v>
       </c>
       <c r="J3" t="n">
-        <v>1.701330755058355</v>
+        <v>0.6252792504423587</v>
       </c>
       <c r="K3" t="n">
-        <v>1.194818714636553</v>
+        <v>0.520040701099845</v>
       </c>
       <c r="L3" t="n">
-        <v>1.076466787010492</v>
+        <v>0.5755889071066168</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6226453014147044</v>
+        <v>0.4080406804636391</v>
       </c>
       <c r="N3" t="n">
-        <v>1.055657159898489</v>
+        <v>1.023902676682368</v>
       </c>
       <c r="O3" t="n">
-        <v>0.649152600949389</v>
+        <v>0.4254118169916289</v>
       </c>
       <c r="P3" t="n">
-        <v>99.8951130478132</v>
+        <v>101.5855536101187</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.620028466355</v>
+        <v>161.3104690286605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_17</t>
+          <t>model_30_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9416052523053923</v>
+        <v>0.9751286507724883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7560571053715196</v>
+        <v>0.778455254981401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5741114518421098</v>
+        <v>0.9758032260752375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.894430433509191</v>
+        <v>0.4672599799036029</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8691765961722422</v>
+        <v>0.9481115511218351</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3904859467169313</v>
+        <v>0.1663148268064032</v>
       </c>
       <c r="H4" t="n">
-        <v>1.631247259634395</v>
+        <v>1.481470730059122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6979623713434379</v>
+        <v>0.4148201544522097</v>
       </c>
       <c r="J4" t="n">
-        <v>1.715512351964674</v>
+        <v>0.6239983129581416</v>
       </c>
       <c r="K4" t="n">
-        <v>1.206737474777138</v>
+        <v>0.5194090623435625</v>
       </c>
       <c r="L4" t="n">
-        <v>1.035231129978816</v>
+        <v>0.5753198482766235</v>
       </c>
       <c r="M4" t="n">
-        <v>0.624888747471845</v>
+        <v>0.4078171487399754</v>
       </c>
       <c r="N4" t="n">
-        <v>1.056058957786823</v>
+        <v>1.023876495258411</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6514915551497555</v>
+        <v>0.4251787690597144</v>
       </c>
       <c r="P4" t="n">
-        <v>99.88072659654154</v>
+        <v>101.5877454795474</v>
       </c>
       <c r="Q4" t="n">
-        <v>159.6056420150834</v>
+        <v>161.3126608980893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_14</t>
+          <t>model_30_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9429145062540886</v>
+        <v>0.9751584950867929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7560481284035336</v>
+        <v>0.7783338061205736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.593838231757533</v>
+        <v>0.9758023643960867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8972759314611727</v>
+        <v>0.4684675582973827</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8734354499166104</v>
+        <v>0.9481814946259497</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3817309595334388</v>
+        <v>0.1661152577392285</v>
       </c>
       <c r="H5" t="n">
-        <v>1.631307288660652</v>
+        <v>1.482282859150696</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6656333731858388</v>
+        <v>0.4148349267470436</v>
       </c>
       <c r="J5" t="n">
-        <v>1.669272824358585</v>
+        <v>0.6225838765500283</v>
       </c>
       <c r="K5" t="n">
-        <v>1.167453078693923</v>
+        <v>0.5187089201987382</v>
       </c>
       <c r="L5" t="n">
-        <v>1.173076378652463</v>
+        <v>0.5750226447743504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6178437986525711</v>
+        <v>0.4075723957031787</v>
       </c>
       <c r="N5" t="n">
-        <v>1.054802073996075</v>
+        <v>1.023847844716679</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6441466882741907</v>
+        <v>0.4249235963794326</v>
       </c>
       <c r="P5" t="n">
-        <v>99.92607842584493</v>
+        <v>101.590146815653</v>
       </c>
       <c r="Q5" t="n">
-        <v>159.6509938443868</v>
+        <v>161.3150622341948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_18</t>
+          <t>model_30_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9412087187719631</v>
+        <v>0.9751912782010098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7560116946096461</v>
+        <v>0.7781986413839435</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5688123812591994</v>
+        <v>0.975801884831872</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8936286008331819</v>
+        <v>0.4698048919542887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8679996130163486</v>
+        <v>0.9482592726696453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3931375682808411</v>
+        <v>0.1658960369035072</v>
       </c>
       <c r="H6" t="n">
-        <v>1.63155092160814</v>
+        <v>1.483186706366917</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7066466900131034</v>
+        <v>0.4148431482108716</v>
       </c>
       <c r="J6" t="n">
-        <v>1.728542185330737</v>
+        <v>0.6210174578198935</v>
       </c>
       <c r="K6" t="n">
-        <v>1.217594168914742</v>
+        <v>0.5179303534537244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9980991311084331</v>
+        <v>0.5746942576150146</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6270068327226117</v>
+        <v>0.4073033720748052</v>
       </c>
       <c r="N6" t="n">
-        <v>1.056439629978915</v>
+        <v>1.023816372927031</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6536998116746883</v>
+        <v>0.4246431198582436</v>
       </c>
       <c r="P6" t="n">
-        <v>99.86719136369746</v>
+        <v>101.5927879410739</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.5921067822393</v>
+        <v>161.3177033596158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_13</t>
+          <t>model_30_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9433757000453581</v>
+        <v>0.9752271351531562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7559634047397372</v>
+        <v>0.7780481713867284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6019288584734335</v>
+        <v>0.9758017924914395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8983808788397161</v>
+        <v>0.4712832580699331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8751273907009042</v>
+        <v>0.9483457507348534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3786469545276174</v>
+        <v>0.1656562612993984</v>
       </c>
       <c r="H7" t="n">
-        <v>1.631873836190575</v>
+        <v>1.484192899931145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6523741460178172</v>
+        <v>0.4148447312596116</v>
       </c>
       <c r="J7" t="n">
-        <v>1.651317357274922</v>
+        <v>0.6192858477900525</v>
       </c>
       <c r="K7" t="n">
-        <v>1.151846327227654</v>
+        <v>0.5170646985394973</v>
       </c>
       <c r="L7" t="n">
-        <v>1.229508864497689</v>
+        <v>0.5743354353927415</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6153429568359562</v>
+        <v>0.4070089204174749</v>
       </c>
       <c r="N7" t="n">
-        <v>1.054359327956456</v>
+        <v>1.02378195025297</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6415393804439862</v>
+        <v>0.4243361327842618</v>
       </c>
       <c r="P7" t="n">
-        <v>99.94230205285876</v>
+        <v>101.5956807051683</v>
       </c>
       <c r="Q7" t="n">
-        <v>159.6672174714006</v>
+        <v>161.3205961237101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_19</t>
+          <t>model_30_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9408358252404517</v>
+        <v>0.9752662674186181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7559534733092211</v>
+        <v>0.7778806230693054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5640484298634793</v>
+        <v>0.9758023645261764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.892893804999048</v>
+        <v>0.4729154775338098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8669291332724552</v>
+        <v>0.948441684517692</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3956311090430743</v>
+        <v>0.1653945836600673</v>
       </c>
       <c r="H8" t="n">
-        <v>1.631940247712166</v>
+        <v>1.485313296301242</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7144540349804751</v>
+        <v>0.4148349245168361</v>
       </c>
       <c r="J8" t="n">
-        <v>1.740482665637043</v>
+        <v>0.617374029354388</v>
       </c>
       <c r="K8" t="n">
-        <v>1.227468457345936</v>
+        <v>0.5161043908550595</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9646570859523184</v>
+        <v>0.5739379387374931</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6289921375049725</v>
+        <v>0.4066873291117727</v>
       </c>
       <c r="N8" t="n">
-        <v>1.056797607769166</v>
+        <v>1.023744383278127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6557696349917818</v>
+        <v>0.42400085067089</v>
       </c>
       <c r="P8" t="n">
-        <v>99.85454608940766</v>
+        <v>101.5988424876898</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.5794615079495</v>
+        <v>161.3237579062316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_20</t>
+          <t>model_30_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9404872178938882</v>
+        <v>0.9753088951081045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7558870925788428</v>
+        <v>0.7776940722549492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5597644812076811</v>
+        <v>0.9758037210488695</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8922217017127548</v>
+        <v>0.4747186536749918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8659565256585759</v>
+        <v>0.9485483051109976</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3979622479747341</v>
+        <v>0.1651095321041894</v>
       </c>
       <c r="H9" t="n">
-        <v>1.632384135961862</v>
+        <v>1.486560762455829</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7214747331782719</v>
+        <v>0.4148116688152767</v>
       </c>
       <c r="J9" t="n">
-        <v>1.751404387945454</v>
+        <v>0.6152619693858873</v>
       </c>
       <c r="K9" t="n">
-        <v>1.236439956493497</v>
+        <v>0.5150371070261397</v>
       </c>
       <c r="L9" t="n">
-        <v>0.934543185032943</v>
+        <v>0.5734997795081628</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6308424906224486</v>
+        <v>0.4063367225641677</v>
       </c>
       <c r="N9" t="n">
-        <v>1.057132270821867</v>
+        <v>1.02370346069622</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6576987614722277</v>
+        <v>0.4236353180766979</v>
       </c>
       <c r="P9" t="n">
-        <v>99.84279626506299</v>
+        <v>101.6022923887707</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.5677116836048</v>
+        <v>161.3272078073126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_21</t>
+          <t>model_30_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9401631893363482</v>
+        <v>0.9753551923612124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7558160054410114</v>
+        <v>0.7774863109099686</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5559143958390815</v>
+        <v>0.975806126336055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8916084231756602</v>
+        <v>0.4767070878264991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.865074341914716</v>
+        <v>0.94866671208764</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4001290284310184</v>
+        <v>0.1647999421594776</v>
       </c>
       <c r="H10" t="n">
-        <v>1.632859495979867</v>
+        <v>1.487950063526368</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7277843996986927</v>
+        <v>0.414770433499987</v>
       </c>
       <c r="J10" t="n">
-        <v>1.761370204236574</v>
+        <v>0.6129329167351321</v>
       </c>
       <c r="K10" t="n">
-        <v>1.244577370382808</v>
+        <v>0.5138518402077545</v>
       </c>
       <c r="L10" t="n">
-        <v>0.907428485648121</v>
+        <v>0.5730211262702426</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6325575297401955</v>
+        <v>0.4059555913637323</v>
       </c>
       <c r="N10" t="n">
-        <v>1.057443338237106</v>
+        <v>1.023659015333236</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6594868133558376</v>
+        <v>0.4232379613320096</v>
       </c>
       <c r="P10" t="n">
-        <v>99.83193642562294</v>
+        <v>101.6060460249617</v>
       </c>
       <c r="Q10" t="n">
-        <v>159.5568518441648</v>
+        <v>161.3309614435036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_12</t>
+          <t>model_30_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.943836395362001</v>
+        <v>0.9754053854445522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7558138902037228</v>
+        <v>0.7772547958008982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6109140353088141</v>
+        <v>0.9758099549623651</v>
       </c>
       <c r="E11" t="n">
-        <v>0.899566427677429</v>
+        <v>0.4789006734097377</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8769698824811691</v>
+        <v>0.9487983483457014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3755662828239191</v>
+        <v>0.1644643007800659</v>
       </c>
       <c r="H11" t="n">
-        <v>1.632873640581355</v>
+        <v>1.489498206126751</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6376488960478709</v>
+        <v>0.4147047970080212</v>
       </c>
       <c r="J11" t="n">
-        <v>1.632052111214345</v>
+        <v>0.6103635702403398</v>
       </c>
       <c r="K11" t="n">
-        <v>1.134850867599177</v>
+        <v>0.5125341468319008</v>
       </c>
       <c r="L11" t="n">
-        <v>1.292146999465649</v>
+        <v>0.5724942359303672</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6128346292630004</v>
+        <v>0.4055419839918746</v>
       </c>
       <c r="N11" t="n">
-        <v>1.053917060452479</v>
+        <v>1.02361082997323</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6389242681732958</v>
+        <v>0.4228067458380466</v>
       </c>
       <c r="P11" t="n">
-        <v>99.95864060903379</v>
+        <v>101.6101234977255</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.6835560275756</v>
+        <v>161.3350389162673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_22</t>
+          <t>model_30_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9398629397798871</v>
+        <v>0.9754595446981549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7557428382781861</v>
+        <v>0.7769967309512004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5524515429112377</v>
+        <v>0.9758156040642368</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8910492230775162</v>
+        <v>0.4813160708242192</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8642741971671002</v>
+        <v>0.9489445108694562</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4021367985975961</v>
+        <v>0.1641021376018451</v>
       </c>
       <c r="H12" t="n">
-        <v>1.633348765134583</v>
+        <v>1.491223886964959</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7334594549486766</v>
+        <v>0.4146079509855631</v>
       </c>
       <c r="J12" t="n">
-        <v>1.770457242361993</v>
+        <v>0.6075344155778326</v>
       </c>
       <c r="K12" t="n">
-        <v>1.251958042525121</v>
+        <v>0.5110710439437897</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8830161632571446</v>
+        <v>0.5719188658818459</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6341425696147485</v>
+        <v>0.405095220413479</v>
       </c>
       <c r="N12" t="n">
-        <v>1.057731577811308</v>
+        <v>1.023558837089771</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6611393316593351</v>
+        <v>0.4223409626091906</v>
       </c>
       <c r="P12" t="n">
-        <v>99.82192590646288</v>
+        <v>101.6145325095123</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.5468413250047</v>
+        <v>161.3394479280541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_23</t>
+          <t>model_30_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9395859906067762</v>
+        <v>0.975517712507989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7556695093593754</v>
+        <v>0.7767090365134581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5493404776685835</v>
+        <v>0.9758235105034689</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8905403688299738</v>
+        <v>0.483974131411948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8635495701302968</v>
+        <v>0.9491068138839469</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4039887589934221</v>
+        <v>0.163713169189646</v>
       </c>
       <c r="H13" t="n">
-        <v>1.633839115952318</v>
+        <v>1.493147700994853</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7385579871434471</v>
+        <v>0.4144724060425213</v>
       </c>
       <c r="J13" t="n">
-        <v>1.77872615712622</v>
+        <v>0.6044210295735614</v>
       </c>
       <c r="K13" t="n">
-        <v>1.258642126373748</v>
+        <v>0.5094463729737609</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8610361528939247</v>
+        <v>0.5712880278154036</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6356011005288004</v>
+        <v>0.4046148405454822</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057997449017495</v>
+        <v>1.023502995992331</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6626599552539734</v>
+        <v>0.4218401319756898</v>
       </c>
       <c r="P13" t="n">
-        <v>99.81273645136359</v>
+        <v>101.6192787014891</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.5376518699054</v>
+        <v>161.3441941200309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_30_5_24</t>
+          <t>model_30_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.939331193060754</v>
+        <v>0.9755798639619757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7555974981805814</v>
+        <v>0.7763881346842838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5465430697287064</v>
+        <v>0.9758342732008281</v>
       </c>
       <c r="E14" t="n">
-        <v>0.890077778584395</v>
+        <v>0.4868961322233778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8628936125535576</v>
+        <v>0.949286983226185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4056925913569075</v>
+        <v>0.1632975621306554</v>
       </c>
       <c r="H14" t="n">
-        <v>1.634320655036495</v>
+        <v>1.495293573004159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7431424858057772</v>
+        <v>0.4142878945124005</v>
       </c>
       <c r="J14" t="n">
-        <v>1.786243278836271</v>
+        <v>0.6009984904212285</v>
       </c>
       <c r="K14" t="n">
-        <v>1.264692791366055</v>
+        <v>0.5076428581041099</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8412469029960387</v>
+        <v>0.5706031521034803</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6369400217892636</v>
+        <v>0.4041009306233474</v>
       </c>
       <c r="N14" t="n">
-        <v>1.058242054661676</v>
+        <v>1.023443330596503</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6640558771644436</v>
+        <v>0.4213043438442295</v>
       </c>
       <c r="P14" t="n">
-        <v>99.804319140639</v>
+        <v>101.6243624157891</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.5292345591808</v>
+        <v>161.3492778343309</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9442838980152333</v>
+        <v>0.9756459479632705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7555792976375688</v>
+        <v>0.7760301023204133</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6208837603856938</v>
+        <v>0.9758487063834888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9008314408198317</v>
+        <v>0.4901057686201402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8789698443814016</v>
+        <v>0.9494871103571441</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3725738305211951</v>
+        <v>0.1628556581097085</v>
       </c>
       <c r="H15" t="n">
-        <v>1.634442362151426</v>
+        <v>1.497687737069949</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6213101309263411</v>
+        <v>0.4140404575987376</v>
       </c>
       <c r="J15" t="n">
-        <v>1.611495565011435</v>
+        <v>0.5972390437469831</v>
       </c>
       <c r="K15" t="n">
-        <v>1.116402876624149</v>
+        <v>0.5056395635811801</v>
       </c>
       <c r="L15" t="n">
-        <v>1.361679592907098</v>
+        <v>0.5698568620333593</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6103882621096142</v>
+        <v>0.4035537858944065</v>
       </c>
       <c r="N15" t="n">
-        <v>1.053487457905376</v>
+        <v>1.02337988995526</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6363737541055119</v>
+        <v>0.4207339060314319</v>
       </c>
       <c r="P15" t="n">
-        <v>99.97464011612125</v>
+        <v>101.6297820071214</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.6995555346631</v>
+        <v>161.3546974256632</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9447012992325219</v>
+        <v>0.9757156204425739</v>
       </c>
       <c r="C16" t="n">
-        <v>0.75523400017652</v>
+        <v>0.7756304376277999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6319361319380423</v>
+        <v>0.9758676403668586</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9021723442556018</v>
+        <v>0.4936262372407303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.881132813284879</v>
+        <v>0.9497092503012069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3697826666592299</v>
+        <v>0.1623897579197948</v>
       </c>
       <c r="H16" t="n">
-        <v>1.636751367863408</v>
+        <v>1.50036029670974</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6031970835316363</v>
+        <v>0.4137158606946098</v>
       </c>
       <c r="J16" t="n">
-        <v>1.589705796583659</v>
+        <v>0.5931155193313165</v>
       </c>
       <c r="K16" t="n">
-        <v>1.096451281143263</v>
+        <v>0.5034159183855866</v>
       </c>
       <c r="L16" t="n">
-        <v>1.438851133965249</v>
+        <v>0.5690517512263713</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6080975798827273</v>
+        <v>0.4029761257441871</v>
       </c>
       <c r="N16" t="n">
-        <v>1.053086752736779</v>
+        <v>1.023313004375129</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6339855527938605</v>
+        <v>0.4201316536926962</v>
       </c>
       <c r="P16" t="n">
-        <v>99.98967966666184</v>
+        <v>101.6355118404794</v>
       </c>
       <c r="Q16" t="n">
-        <v>159.7145950852037</v>
+        <v>161.3604272590212</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9450659515349235</v>
+        <v>0.9757884381544907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7547456782340264</v>
+        <v>0.7751840594229965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6441730141392783</v>
+        <v>0.9758921803038976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9035822764098118</v>
+        <v>0.4974824057123032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8834617609032829</v>
+        <v>0.9499558810739617</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3673442350340016</v>
+        <v>0.1619028255449119</v>
       </c>
       <c r="H17" t="n">
-        <v>1.640016778941379</v>
+        <v>1.503345229820644</v>
       </c>
       <c r="I17" t="n">
-        <v>0.583142814977182</v>
+        <v>0.4132951574841559</v>
       </c>
       <c r="J17" t="n">
-        <v>1.56679430697183</v>
+        <v>0.5885987897259295</v>
       </c>
       <c r="K17" t="n">
-        <v>1.074968669579196</v>
+        <v>0.5009471173096006</v>
       </c>
       <c r="L17" t="n">
-        <v>1.524493586201889</v>
+        <v>0.5681818494589624</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6060892962542744</v>
+        <v>0.4023715019045359</v>
       </c>
       <c r="N17" t="n">
-        <v>1.052736686526474</v>
+        <v>1.023243099371689</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6318917723736241</v>
+        <v>0.4195012897644472</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0029118008535</v>
+        <v>101.641517932085</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.7278272193954</v>
+        <v>161.3664333506268</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9453478472450971</v>
+        <v>0.9758636484604308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7540736309913436</v>
+        <v>0.7746852548741828</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6577008723188618</v>
+        <v>0.9759237108312133</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9050493282341028</v>
+        <v>0.5016990819981342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8859557691163655</v>
+        <v>0.9502296066381426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3654591971220596</v>
+        <v>0.1613998938827784</v>
       </c>
       <c r="H18" t="n">
-        <v>1.644510761947691</v>
+        <v>1.506680738135344</v>
       </c>
       <c r="I18" t="n">
-        <v>0.560972845826663</v>
+        <v>0.4127546102917191</v>
       </c>
       <c r="J18" t="n">
-        <v>1.54295461898976</v>
+        <v>0.5836597973668177</v>
       </c>
       <c r="K18" t="n">
-        <v>1.051963510830298</v>
+        <v>0.4982070944007544</v>
       </c>
       <c r="L18" t="n">
-        <v>1.619535654677709</v>
+        <v>0.5672520481366171</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6045322134692738</v>
+        <v>0.4017460564620123</v>
       </c>
       <c r="N18" t="n">
-        <v>1.052466066644707</v>
+        <v>1.023170897477987</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6302684013508603</v>
+        <v>0.4188492178145849</v>
       </c>
       <c r="P18" t="n">
-        <v>100.01320128361</v>
+        <v>101.6477403612524</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.7381167021518</v>
+        <v>161.3726557797942</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9455077488476337</v>
+        <v>0.9759402549360585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7531666173503839</v>
+        <v>0.7741275481056424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6726223211261346</v>
+        <v>0.9759637425669403</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9065561057196766</v>
+        <v>0.5063050304965278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8886085690968939</v>
+        <v>0.9505333671818711</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3643899343696189</v>
+        <v>0.1608876260275161</v>
       </c>
       <c r="H19" t="n">
-        <v>1.650575966341203</v>
+        <v>1.510410125864577</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5365190072849821</v>
+        <v>0.412068321662959</v>
       </c>
       <c r="J19" t="n">
-        <v>1.518469386416703</v>
+        <v>0.578264850518166</v>
       </c>
       <c r="K19" t="n">
-        <v>1.027493629632233</v>
+        <v>0.4951664180535876</v>
       </c>
       <c r="L19" t="n">
-        <v>1.724992899252798</v>
+        <v>0.5662608511494314</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6036471936235759</v>
+        <v>0.4011079979600458</v>
       </c>
       <c r="N19" t="n">
-        <v>1.052312561106272</v>
+        <v>1.023097355261384</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6293457043780873</v>
+        <v>0.4181839958412264</v>
       </c>
       <c r="P19" t="n">
-        <v>100.0190614729084</v>
+        <v>101.65409826536</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.7439768914502</v>
+        <v>161.3790136839018</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9454943289495641</v>
+        <v>0.9760166606320042</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7519603407613716</v>
+        <v>0.7735035677600401</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6890389659885698</v>
+        <v>0.9760141210991755</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9080767082566517</v>
+        <v>0.5113265614651796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8914062691171624</v>
+        <v>0.9508702539087265</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3644796732898032</v>
+        <v>0.1603767007869117</v>
       </c>
       <c r="H20" t="n">
-        <v>1.65864234344632</v>
+        <v>1.514582685308785</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5096147845082748</v>
+        <v>0.4112046515477666</v>
       </c>
       <c r="J20" t="n">
-        <v>1.493759495855235</v>
+        <v>0.5723831319787199</v>
       </c>
       <c r="K20" t="n">
-        <v>1.001687165659719</v>
+        <v>0.4917941449813513</v>
       </c>
       <c r="L20" t="n">
-        <v>1.842006972416584</v>
+        <v>0.5652116885436437</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6037215196510749</v>
+        <v>0.4004705991541848</v>
       </c>
       <c r="N20" t="n">
-        <v>1.052325444208418</v>
+        <v>1.023024005793276</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6294231946184532</v>
+        <v>0.4175194616486025</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0185689901944</v>
+        <v>101.66045970208</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.7434844087362</v>
+        <v>161.3853751206218</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9452415034890437</v>
+        <v>0.9760908520393039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7503741241399886</v>
+        <v>0.7728049132392197</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7070422792652509</v>
+        <v>0.9760770872229184</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9095748529866745</v>
+        <v>0.5167902251728731</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8943251505817538</v>
+        <v>0.9512438633827828</v>
       </c>
       <c r="G21" t="n">
-        <v>0.366170318308457</v>
+        <v>0.1598805825046782</v>
       </c>
       <c r="H21" t="n">
-        <v>1.669249381297365</v>
+        <v>1.51925459130652</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4801102691110385</v>
+        <v>0.4101251846214101</v>
       </c>
       <c r="J21" t="n">
-        <v>1.46941454612383</v>
+        <v>0.5659835434222709</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9747629032976695</v>
+        <v>0.4880542731833356</v>
       </c>
       <c r="L21" t="n">
-        <v>1.971820552648603</v>
+        <v>0.5641123163462393</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6051200858577221</v>
+        <v>0.3998507002678351</v>
       </c>
       <c r="N21" t="n">
-        <v>1.052568156650518</v>
+        <v>1.022952782042268</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6308813006839485</v>
+        <v>0.4168731723832934</v>
       </c>
       <c r="P21" t="n">
-        <v>100.0093134065064</v>
+        <v>101.6666562035177</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.7342288250483</v>
+        <v>161.3915716220596</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9446634742938393</v>
+        <v>0.9761601523268361</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7483066487109903</v>
+        <v>0.7720220307203638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7267011307156086</v>
+        <v>0.9761552954941758</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9110004126687953</v>
+        <v>0.5227269281975417</v>
       </c>
       <c r="F22" t="n">
-        <v>0.897327238801633</v>
+        <v>0.9516581308014619</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3700356021983684</v>
+        <v>0.1594171711628521</v>
       </c>
       <c r="H22" t="n">
-        <v>1.683074599010926</v>
+        <v>1.524489730314952</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4478925947088302</v>
+        <v>0.4087844122001233</v>
       </c>
       <c r="J22" t="n">
-        <v>1.446249108162559</v>
+        <v>0.5590298839782959</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9470711275792753</v>
+        <v>0.4839074109018889</v>
       </c>
       <c r="L22" t="n">
-        <v>2.115836221611376</v>
+        <v>0.5629718713458582</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6083055171526627</v>
+        <v>0.3992707992864644</v>
       </c>
       <c r="N22" t="n">
-        <v>1.053123064677914</v>
+        <v>1.022886253766237</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6342023423838665</v>
+        <v>0.4162685838165852</v>
       </c>
       <c r="P22" t="n">
-        <v>99.98831211163034</v>
+        <v>101.672461589392</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.7132275301722</v>
+        <v>161.3973770079338</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9436500076717096</v>
+        <v>0.9762207809163496</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7456309707994803</v>
+        <v>0.7711441288317833</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7480540059344487</v>
+        <v>0.9762514915540886</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9122852589539012</v>
+        <v>0.5291615063454258</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9003558744087304</v>
+        <v>0.9521170127709663</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3768126581671346</v>
+        <v>0.1590117475056065</v>
       </c>
       <c r="H23" t="n">
-        <v>1.700966869525557</v>
+        <v>1.530360264286256</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4128986896432801</v>
+        <v>0.4071352640717482</v>
       </c>
       <c r="J23" t="n">
-        <v>1.425370272095093</v>
+        <v>0.5514930634703294</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9191344742160841</v>
+        <v>0.4793139520751231</v>
       </c>
       <c r="L23" t="n">
-        <v>2.275607031830877</v>
+        <v>0.5618114810336985</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6138506806766078</v>
+        <v>0.3987627709623938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.054095992635159</v>
+        <v>1.022828050320304</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6399835749990969</v>
+        <v>0.4157389276749952</v>
       </c>
       <c r="P23" t="n">
-        <v>99.95201428596474</v>
+        <v>101.6775543916162</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.6769297045066</v>
+        <v>161.402469810158</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9420595118092228</v>
+        <v>0.9762680450211619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7421877703728932</v>
+        <v>0.7701587801557571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7710905653914732</v>
+        <v>0.9763692164045622</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9133371273771388</v>
+        <v>0.5361254774956457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9033288407133426</v>
+        <v>0.9526252180137631</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3874483113231439</v>
+        <v>0.1586956922190946</v>
       </c>
       <c r="H24" t="n">
-        <v>1.723991566632625</v>
+        <v>1.536949295419957</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3751454987303888</v>
+        <v>0.4051170346661185</v>
       </c>
       <c r="J24" t="n">
-        <v>1.408277341502611</v>
+        <v>0.543336165010852</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8917113240299848</v>
+        <v>0.4742267618748729</v>
       </c>
       <c r="L24" t="n">
-        <v>2.452852850804561</v>
+        <v>0.5606474568717476</v>
       </c>
       <c r="M24" t="n">
-        <v>0.622453461170507</v>
+        <v>0.3983662789683567</v>
       </c>
       <c r="N24" t="n">
-        <v>1.055622868663146</v>
+        <v>1.022782676779685</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6489525936688321</v>
+        <v>0.4153255561959204</v>
       </c>
       <c r="P24" t="n">
-        <v>99.89634565843963</v>
+        <v>101.6815335919906</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.6212610769815</v>
+        <v>161.4064490105324</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9397104243077832</v>
+        <v>0.9762957209934913</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7377773319845853</v>
+        <v>0.769051803010118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7957311456821813</v>
+        <v>0.976512224504412</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9140331742969368</v>
+        <v>0.5436452908185589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9061309230167699</v>
+        <v>0.9531876285599596</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4031566702618239</v>
+        <v>0.1585106228646928</v>
       </c>
       <c r="H25" t="n">
-        <v>1.753484188443442</v>
+        <v>1.544351656690007</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3347635773911818</v>
+        <v>0.4026653589901772</v>
       </c>
       <c r="J25" t="n">
-        <v>1.396966533585594</v>
+        <v>0.5345282086902268</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8658644371273366</v>
+        <v>0.4685969706444967</v>
       </c>
       <c r="L25" t="n">
-        <v>2.649505021400034</v>
+        <v>0.5595114183244116</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6349461947770251</v>
+        <v>0.3981339257896679</v>
       </c>
       <c r="N25" t="n">
-        <v>1.057877992664528</v>
+        <v>1.022756107846248</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6619771688085033</v>
+        <v>0.4150833112613774</v>
       </c>
       <c r="P25" t="n">
-        <v>99.81686006525625</v>
+        <v>101.6838673333646</v>
       </c>
       <c r="Q25" t="n">
-        <v>159.5417754837981</v>
+        <v>161.4087827519064</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.936370332814379</v>
+        <v>0.9762956655450373</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7321490195903551</v>
+        <v>0.7678068431582006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8217989194752394</v>
+        <v>0.9766844417854272</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9142093775410168</v>
+        <v>0.5517504991524752</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9086017493847318</v>
+        <v>0.9538093066255163</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4254918774579249</v>
+        <v>0.1585109936487594</v>
       </c>
       <c r="H26" t="n">
-        <v>1.791120739339655</v>
+        <v>1.552676708952291</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2920427169901598</v>
+        <v>0.3997129323843739</v>
       </c>
       <c r="J26" t="n">
-        <v>1.394103219358553</v>
+        <v>0.5250345792729683</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8430731116867242</v>
+        <v>0.4623739050472092</v>
       </c>
       <c r="L26" t="n">
-        <v>2.867713017951219</v>
+        <v>0.5584440128348807</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6522973842182145</v>
+        <v>0.3981343914418339</v>
       </c>
       <c r="N26" t="n">
-        <v>1.061084480498196</v>
+        <v>1.022756161076764</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6800670343061177</v>
+        <v>0.4150837967373202</v>
       </c>
       <c r="P26" t="n">
-        <v>99.70901884111299</v>
+        <v>101.6838626550203</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.4339342596548</v>
+        <v>161.4087780735621</v>
       </c>
     </row>
   </sheetData>
